--- a/Code/Results/Cases/Case_0_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9633281048025604</v>
+        <v>1.077097194815224</v>
       </c>
       <c r="D2">
-        <v>0.9784031211147382</v>
+        <v>1.086920381594432</v>
       </c>
       <c r="E2">
-        <v>0.979632188502503</v>
+        <v>1.081559366048157</v>
       </c>
       <c r="F2">
-        <v>0.984743406099683</v>
+        <v>1.094771762609407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.9866638630628369</v>
+        <v>1.081993357721316</v>
       </c>
       <c r="K2">
-        <v>0.9901717663095303</v>
+        <v>1.089576980966636</v>
       </c>
       <c r="L2">
-        <v>0.9913827664543913</v>
+        <v>1.084229872939025</v>
       </c>
       <c r="M2">
-        <v>0.9964194626049897</v>
+        <v>1.097408259026155</v>
       </c>
       <c r="N2">
-        <v>0.9947773773672255</v>
+        <v>1.030231680001454</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9782423922764905</v>
+        <v>1.07962987264386</v>
       </c>
       <c r="D3">
-        <v>0.9926308389721785</v>
+        <v>1.089394839400523</v>
       </c>
       <c r="E3">
-        <v>0.9930081575293542</v>
+        <v>1.083873224589529</v>
       </c>
       <c r="F3">
-        <v>0.9991565130777353</v>
+        <v>1.09728640589567</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9993442923319011</v>
+        <v>1.08417879815469</v>
       </c>
       <c r="K3">
-        <v>1.003358886109568</v>
+        <v>1.091866945882649</v>
       </c>
       <c r="L3">
-        <v>1.003731288964663</v>
+        <v>1.086358584309259</v>
       </c>
       <c r="M3">
-        <v>1.009800197865441</v>
+        <v>1.099739819178849</v>
       </c>
       <c r="N3">
-        <v>0.9995582715736917</v>
+        <v>1.031019165620977</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9873577861205936</v>
+        <v>1.081261425383543</v>
       </c>
       <c r="D4">
-        <v>1.001336143724632</v>
+        <v>1.090989084607024</v>
       </c>
       <c r="E4">
-        <v>1.001191677543617</v>
+        <v>1.085363605105732</v>
       </c>
       <c r="F4">
-        <v>1.007977033104008</v>
+        <v>1.09890668132633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.007090504337316</v>
+        <v>1.085585655038973</v>
       </c>
       <c r="K4">
-        <v>1.011418469374637</v>
+        <v>1.093341504606984</v>
       </c>
       <c r="L4">
-        <v>1.011275741314253</v>
+        <v>1.087728826230066</v>
       </c>
       <c r="M4">
-        <v>1.017980126384921</v>
+        <v>1.101241321932016</v>
       </c>
       <c r="N4">
-        <v>1.002475607418851</v>
+        <v>1.031524763764052</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9910758289345222</v>
+        <v>1.081945641130516</v>
       </c>
       <c r="D5">
-        <v>1.004888946969511</v>
+        <v>1.091657701279923</v>
       </c>
       <c r="E5">
-        <v>1.004531289622729</v>
+        <v>1.085988567002672</v>
       </c>
       <c r="F5">
-        <v>1.011577266758464</v>
+        <v>1.099586248201469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>1.010248943134357</v>
+        <v>1.086175400095348</v>
       </c>
       <c r="K5">
-        <v>1.014705593864332</v>
+        <v>1.093959729160351</v>
       </c>
       <c r="L5">
-        <v>1.014352096113837</v>
+        <v>1.08830319924295</v>
       </c>
       <c r="M5">
-        <v>1.021316796430958</v>
+        <v>1.101870881242414</v>
       </c>
       <c r="N5">
-        <v>1.003664103122335</v>
+        <v>1.031736384892076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9916937771519921</v>
+        <v>1.082060426328191</v>
       </c>
       <c r="D6">
-        <v>1.005479544782286</v>
+        <v>1.091769872243304</v>
       </c>
       <c r="E6">
-        <v>1.005086431298183</v>
+        <v>1.086093408635332</v>
       </c>
       <c r="F6">
-        <v>1.012175772701303</v>
+        <v>1.099700258182677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.010773811730092</v>
+        <v>1.086274322569442</v>
       </c>
       <c r="K6">
-        <v>1.015251900825426</v>
+        <v>1.094063434544672</v>
       </c>
       <c r="L6">
-        <v>1.014863333197612</v>
+        <v>1.088399541871634</v>
       </c>
       <c r="M6">
-        <v>1.021871364353387</v>
+        <v>1.101976490236201</v>
       </c>
       <c r="N6">
-        <v>1.003861540509316</v>
+        <v>1.031771862775023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9874078983261257</v>
+        <v>1.081270574479414</v>
       </c>
       <c r="D7">
-        <v>1.001384021047236</v>
+        <v>1.090998024936305</v>
       </c>
       <c r="E7">
-        <v>1.001236682980235</v>
+        <v>1.085371962082602</v>
       </c>
       <c r="F7">
-        <v>1.008025547992742</v>
+        <v>1.098915767944191</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>1.007133078889387</v>
+        <v>1.085593541854633</v>
       </c>
       <c r="K7">
-        <v>1.011462774946272</v>
+        <v>1.093349771895775</v>
       </c>
       <c r="L7">
-        <v>1.011317208752788</v>
+        <v>1.087736507563336</v>
       </c>
       <c r="M7">
-        <v>1.018025097942801</v>
+        <v>1.101249740646279</v>
       </c>
       <c r="N7">
-        <v>1.00249163224346</v>
+        <v>1.031527595099063</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9684885998181247</v>
+        <v>1.077954657831719</v>
       </c>
       <c r="D8">
-        <v>0.9833238302980046</v>
+        <v>1.087758091969406</v>
       </c>
       <c r="E8">
-        <v>0.9842583937188458</v>
+        <v>1.082342788236642</v>
       </c>
       <c r="F8">
-        <v>0.9897278364442096</v>
+        <v>1.095623048461126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9910521146077125</v>
+        <v>1.082733468584535</v>
       </c>
       <c r="K8">
-        <v>0.9947345316814892</v>
+        <v>1.090352403287819</v>
       </c>
       <c r="L8">
-        <v>0.9956559032645984</v>
+        <v>1.084950792022394</v>
       </c>
       <c r="M8">
-        <v>1.001048772343468</v>
+        <v>1.098197732932352</v>
       </c>
       <c r="N8">
-        <v>0.9964324010482585</v>
+        <v>1.030498643121221</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9302346913052323</v>
+        <v>1.072053773455259</v>
       </c>
       <c r="D9">
-        <v>0.946905978212828</v>
+        <v>1.081993998353002</v>
       </c>
       <c r="E9">
-        <v>0.9500223004996712</v>
+        <v>1.076950624113912</v>
       </c>
       <c r="F9">
-        <v>0.9528476564237505</v>
+        <v>1.089766126209512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9585167092743577</v>
+        <v>1.077636040674979</v>
       </c>
       <c r="K9">
-        <v>0.9609235094978353</v>
+        <v>1.085013493287195</v>
       </c>
       <c r="L9">
-        <v>0.9639818494503318</v>
+        <v>1.079985158096746</v>
       </c>
       <c r="M9">
-        <v>0.9667550638067584</v>
+        <v>1.092762741635001</v>
       </c>
       <c r="N9">
-        <v>0.9841604709452819</v>
+        <v>1.028654497441378</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8998211969821305</v>
+        <v>1.068077840655972</v>
       </c>
       <c r="D10">
-        <v>0.9180554511098999</v>
+        <v>1.078111355415872</v>
       </c>
       <c r="E10">
-        <v>0.9229117977565191</v>
+        <v>1.073316488630716</v>
       </c>
       <c r="F10">
-        <v>0.9236450414662403</v>
+        <v>1.085821691539815</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9326621967671893</v>
+        <v>1.074196275556257</v>
       </c>
       <c r="K10">
-        <v>0.9340806017613573</v>
+        <v>1.081412947653394</v>
       </c>
       <c r="L10">
-        <v>0.9388278914649266</v>
+        <v>1.076633851925781</v>
       </c>
       <c r="M10">
-        <v>0.9395448016871316</v>
+        <v>1.089098243217101</v>
       </c>
       <c r="N10">
-        <v>0.9744283415243702</v>
+        <v>1.027403246845007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8848987513345545</v>
+        <v>1.066345544997928</v>
       </c>
       <c r="D11">
-        <v>0.903936570901801</v>
+        <v>1.076419985771268</v>
       </c>
       <c r="E11">
-        <v>0.9096514228212083</v>
+        <v>1.071732899355283</v>
       </c>
       <c r="F11">
-        <v>0.9093581159312599</v>
+        <v>1.084103580404519</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9199895259930861</v>
+        <v>1.072696360970624</v>
       </c>
       <c r="K11">
-        <v>0.9209299519268456</v>
+        <v>1.079843441168943</v>
       </c>
       <c r="L11">
-        <v>0.926505102259808</v>
+        <v>1.075172400775276</v>
       </c>
       <c r="M11">
-        <v>0.926218907899503</v>
+        <v>1.087501061105503</v>
       </c>
       <c r="N11">
-        <v>0.9696725232728264</v>
+        <v>1.026856044875795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.879011848178587</v>
+        <v>1.065700425458806</v>
       </c>
       <c r="D12">
-        <v>0.8983737377509929</v>
+        <v>1.075790150631391</v>
       </c>
       <c r="E12">
-        <v>0.9044284406152225</v>
+        <v>1.071143128613405</v>
       </c>
       <c r="F12">
-        <v>0.903729822835166</v>
+        <v>1.083463813866095</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268118</v>
       </c>
       <c r="J12">
-        <v>0.914993415366368</v>
+        <v>1.072137598405157</v>
       </c>
       <c r="K12">
-        <v>0.9157464234974235</v>
+        <v>1.079258831294015</v>
       </c>
       <c r="L12">
-        <v>0.9216482515565763</v>
+        <v>1.074627950888349</v>
       </c>
       <c r="M12">
-        <v>0.9209671320892435</v>
+        <v>1.086906173083127</v>
       </c>
       <c r="N12">
-        <v>0.9678009360776026</v>
+        <v>1.026651958764889</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8802919131156947</v>
+        <v>1.065838882266833</v>
       </c>
       <c r="D13">
-        <v>0.8995829876171976</v>
+        <v>1.075925325096326</v>
       </c>
       <c r="E13">
-        <v>0.9055637304542767</v>
+        <v>1.071269707712809</v>
       </c>
       <c r="F13">
-        <v>0.904953266550351</v>
+        <v>1.083601118588456</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405786</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9160796105276985</v>
+        <v>1.072257529400073</v>
       </c>
       <c r="K13">
-        <v>0.9168733181058503</v>
+        <v>1.079384306554306</v>
       </c>
       <c r="L13">
-        <v>0.9227041041664119</v>
+        <v>1.074744810578688</v>
       </c>
       <c r="M13">
-        <v>0.9221088241384353</v>
+        <v>1.087033852969395</v>
       </c>
       <c r="N13">
-        <v>0.9682076599279066</v>
+        <v>1.026695773845095</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.884419765045795</v>
+        <v>1.06629225359982</v>
       </c>
       <c r="D14">
-        <v>0.9034838002526678</v>
+        <v>1.076367956083231</v>
       </c>
       <c r="E14">
-        <v>0.9092262773835127</v>
+        <v>1.071684180769943</v>
       </c>
       <c r="F14">
-        <v>0.9089000015899336</v>
+        <v>1.084050729755418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353277</v>
       </c>
       <c r="J14">
-        <v>0.9195829441975978</v>
+        <v>1.072650206999685</v>
       </c>
       <c r="K14">
-        <v>0.920508097389575</v>
+        <v>1.079795150616917</v>
       </c>
       <c r="L14">
-        <v>0.9261098245100337</v>
+        <v>1.07512742936232</v>
       </c>
       <c r="M14">
-        <v>0.9257914817651911</v>
+        <v>1.087451920925396</v>
       </c>
       <c r="N14">
-        <v>0.9695201386469029</v>
+        <v>1.026839192118332</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8869144079263621</v>
+        <v>1.066571367774509</v>
       </c>
       <c r="D15">
-        <v>0.9058422001685545</v>
+        <v>1.076640463816594</v>
       </c>
       <c r="E15">
-        <v>0.9114408503270668</v>
+        <v>1.071939343556082</v>
       </c>
       <c r="F15">
-        <v>0.9112862665224597</v>
+        <v>1.084327538398557</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9217006311588296</v>
+        <v>1.072891931335021</v>
       </c>
       <c r="K15">
-        <v>0.9227053737551721</v>
+        <v>1.080048068147763</v>
       </c>
       <c r="L15">
-        <v>0.9281686893276301</v>
+        <v>1.075362959575611</v>
       </c>
       <c r="M15">
-        <v>0.928017812264362</v>
+        <v>1.087709289556107</v>
       </c>
       <c r="N15">
-        <v>0.970313978341547</v>
+        <v>1.026927446157972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9007685441766423</v>
+        <v>1.068192576942072</v>
       </c>
       <c r="D16">
-        <v>0.9189526281345098</v>
+        <v>1.078223387008178</v>
       </c>
       <c r="E16">
-        <v>0.9237546006744338</v>
+        <v>1.073421371194162</v>
       </c>
       <c r="F16">
-        <v>0.9245529898614195</v>
+        <v>1.085935498133599</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9334670699953208</v>
+        <v>1.074295594700403</v>
       </c>
       <c r="K16">
-        <v>0.9349159655675914</v>
+        <v>1.081516885796698</v>
       </c>
       <c r="L16">
-        <v>0.939610697552057</v>
+        <v>1.076730621886965</v>
       </c>
       <c r="M16">
-        <v>0.9403914003213236</v>
+        <v>1.089204018390464</v>
       </c>
       <c r="N16">
-        <v>0.9747307709706032</v>
+        <v>1.027439447380139</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9089431115175479</v>
+        <v>1.069206613332419</v>
       </c>
       <c r="D17">
-        <v>0.9266983482000948</v>
+        <v>1.07921355177558</v>
       </c>
       <c r="E17">
-        <v>0.9310316778286836</v>
+        <v>1.074348296271926</v>
       </c>
       <c r="F17">
-        <v>0.9323921714776732</v>
+        <v>1.086941371166386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9404137283404213</v>
+        <v>1.07517323382403</v>
       </c>
       <c r="K17">
-        <v>0.9421264832626862</v>
+        <v>1.082435400445559</v>
       </c>
       <c r="L17">
-        <v>0.9463676262809089</v>
+        <v>1.077585722482316</v>
       </c>
       <c r="M17">
-        <v>0.9476994108329249</v>
+        <v>1.090138790368431</v>
       </c>
       <c r="N17">
-        <v>0.9773426117721575</v>
+        <v>1.027759152391226</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9135488775323901</v>
+        <v>1.069797056351687</v>
       </c>
       <c r="D18">
-        <v>0.9310656488725484</v>
+        <v>1.0797901219054</v>
       </c>
       <c r="E18">
-        <v>0.9351353233165466</v>
+        <v>1.074887996393725</v>
       </c>
       <c r="F18">
-        <v>0.9368125414818097</v>
+        <v>1.087527105126903</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9443287104210096</v>
+        <v>1.075684139027546</v>
       </c>
       <c r="K18">
-        <v>0.9461907463393391</v>
+        <v>1.082970150395692</v>
       </c>
       <c r="L18">
-        <v>0.9501762359071324</v>
+        <v>1.078083496684618</v>
       </c>
       <c r="M18">
-        <v>0.9518190399912483</v>
+        <v>1.090683024565266</v>
       </c>
       <c r="N18">
-        <v>0.9788157870985892</v>
+        <v>1.027945111006379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9150936892286943</v>
+        <v>1.069998209770692</v>
       </c>
       <c r="D19">
-        <v>0.9325309787280112</v>
+        <v>1.079986553595488</v>
       </c>
       <c r="E19">
-        <v>0.936512277209343</v>
+        <v>1.075071859074925</v>
       </c>
       <c r="F19">
-        <v>0.9382957380654258</v>
+        <v>1.087726661713932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9456419769595502</v>
+        <v>1.075858175336502</v>
       </c>
       <c r="K19">
-        <v>0.9475541852232775</v>
+        <v>1.083152317668115</v>
       </c>
       <c r="L19">
-        <v>0.9514539066641691</v>
+        <v>1.078253058215992</v>
       </c>
       <c r="M19">
-        <v>0.9532011200675525</v>
+        <v>1.090868426015081</v>
       </c>
       <c r="N19">
-        <v>0.9793101345871692</v>
+        <v>1.028008430481286</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9080833164970784</v>
+        <v>1.069097923520204</v>
       </c>
       <c r="D20">
-        <v>0.9258833194003641</v>
+        <v>1.079107417864153</v>
       </c>
       <c r="E20">
-        <v>0.9302658970892014</v>
+        <v>1.074248945633899</v>
       </c>
       <c r="F20">
-        <v>0.931567268719667</v>
+        <v>1.086833551759724</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9396829663314872</v>
+        <v>1.075079175982128</v>
       </c>
       <c r="K20">
-        <v>0.9413679036517657</v>
+        <v>1.082336956776091</v>
       </c>
       <c r="L20">
-        <v>0.9456567630351955</v>
+        <v>1.077494081213012</v>
       </c>
       <c r="M20">
-        <v>0.9469305305438448</v>
+        <v>1.090038602278289</v>
       </c>
       <c r="N20">
-        <v>0.9770677234968902</v>
+        <v>1.027724904984341</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8832145591289001</v>
+        <v>1.06615879358326</v>
       </c>
       <c r="D21">
-        <v>0.9023446757245105</v>
+        <v>1.076237656525637</v>
       </c>
       <c r="E21">
-        <v>0.9081566827860792</v>
+        <v>1.071562172163622</v>
       </c>
       <c r="F21">
-        <v>0.9077474452529146</v>
+        <v>1.083918374670249</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9185599767724154</v>
+        <v>1.072534618599807</v>
       </c>
       <c r="K21">
-        <v>0.9194467198938306</v>
+        <v>1.079674212600262</v>
       </c>
       <c r="L21">
-        <v>0.9251153207054424</v>
+        <v>1.075014802312157</v>
       </c>
       <c r="M21">
-        <v>0.9247160998827728</v>
+        <v>1.08732885560738</v>
       </c>
       <c r="N21">
-        <v>0.969136794301636</v>
+        <v>1.026796982106494</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8655129439351558</v>
+        <v>1.064301165077549</v>
       </c>
       <c r="D22">
-        <v>0.8856336943226946</v>
+        <v>1.074424122510582</v>
       </c>
       <c r="E22">
-        <v>0.8924706175058613</v>
+        <v>1.069863865158007</v>
       </c>
       <c r="F22">
-        <v>0.8908414463850802</v>
+        <v>1.082076294799277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9035453769984551</v>
+        <v>1.07092531059579</v>
       </c>
       <c r="K22">
-        <v>0.9038709319246564</v>
+        <v>1.077990607768552</v>
       </c>
       <c r="L22">
-        <v>0.9105223444314974</v>
+        <v>1.073446686672098</v>
       </c>
       <c r="M22">
-        <v>0.9089370271920834</v>
+        <v>1.08561570860124</v>
       </c>
       <c r="N22">
-        <v>0.9635205412203626</v>
+        <v>1.026208742761087</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8751316294170911</v>
+        <v>1.065286867658085</v>
       </c>
       <c r="D23">
-        <v>0.8947093759909892</v>
+        <v>1.075386403314035</v>
       </c>
       <c r="E23">
-        <v>0.9009884908140098</v>
+        <v>1.070765044081621</v>
       </c>
       <c r="F23">
-        <v>0.9000225711476941</v>
+        <v>1.083053707678578</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9117014841173836</v>
+        <v>1.071779348693187</v>
       </c>
       <c r="K23">
-        <v>0.9123312990169582</v>
+        <v>1.078884031521249</v>
       </c>
       <c r="L23">
-        <v>0.9184485091829759</v>
+        <v>1.074278873237088</v>
       </c>
       <c r="M23">
-        <v>0.9175072965639752</v>
+        <v>1.086524792474834</v>
       </c>
       <c r="N23">
-        <v>0.9665688912436673</v>
+        <v>1.026521042759848</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9084723169152025</v>
+        <v>1.069147038939072</v>
       </c>
       <c r="D24">
-        <v>0.9262520562620447</v>
+        <v>1.079155378223981</v>
       </c>
       <c r="E24">
-        <v>0.93061235126399</v>
+        <v>1.07429384087325</v>
       </c>
       <c r="F24">
-        <v>0.931940471615832</v>
+        <v>1.086882273717744</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9400135846270929</v>
+        <v>1.075121679780783</v>
       </c>
       <c r="K24">
-        <v>0.9417111056498773</v>
+        <v>1.082381442332873</v>
       </c>
       <c r="L24">
-        <v>0.9459783768261526</v>
+        <v>1.077535493019211</v>
       </c>
       <c r="M24">
-        <v>0.9472783915598386</v>
+        <v>1.090083876058649</v>
       </c>
       <c r="N24">
-        <v>0.9771920873813071</v>
+        <v>1.027740381518993</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.940842128317711</v>
+        <v>1.073586464254422</v>
       </c>
       <c r="D25">
-        <v>0.9569904252899931</v>
+        <v>1.083490967031524</v>
       </c>
       <c r="E25">
-        <v>0.9595016789232494</v>
+        <v>1.078351356378972</v>
       </c>
       <c r="F25">
-        <v>0.9630580421602676</v>
+        <v>1.091287074335799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9675386816759591</v>
+        <v>1.078960954643524</v>
       </c>
       <c r="K25">
-        <v>0.9702952416176671</v>
+        <v>1.086400792518705</v>
       </c>
       <c r="L25">
-        <v>0.9727629921467483</v>
+        <v>1.081275901106545</v>
       </c>
       <c r="M25">
-        <v>0.9762582490677406</v>
+        <v>1.094174859860201</v>
       </c>
       <c r="N25">
-        <v>0.9875625435939719</v>
+        <v>1.029135026410762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077097194815224</v>
+        <v>0.9633281048025611</v>
       </c>
       <c r="D2">
-        <v>1.086920381594432</v>
+        <v>0.9784031211147389</v>
       </c>
       <c r="E2">
-        <v>1.081559366048157</v>
+        <v>0.9796321885025032</v>
       </c>
       <c r="F2">
-        <v>1.094771762609407</v>
+        <v>0.984743406099684</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.081993357721316</v>
+        <v>0.9866638630628375</v>
       </c>
       <c r="K2">
-        <v>1.089576980966636</v>
+        <v>0.9901717663095312</v>
       </c>
       <c r="L2">
-        <v>1.084229872939025</v>
+        <v>0.9913827664543916</v>
       </c>
       <c r="M2">
-        <v>1.097408259026155</v>
+        <v>0.9964194626049906</v>
       </c>
       <c r="N2">
-        <v>1.030231680001454</v>
+        <v>0.9947773773672257</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07962987264386</v>
+        <v>0.9782423922764891</v>
       </c>
       <c r="D3">
-        <v>1.089394839400523</v>
+        <v>0.9926308389721769</v>
       </c>
       <c r="E3">
-        <v>1.083873224589529</v>
+        <v>0.9930081575293532</v>
       </c>
       <c r="F3">
-        <v>1.09728640589567</v>
+        <v>0.9991565130777339</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.08417879815469</v>
+        <v>0.9993442923318998</v>
       </c>
       <c r="K3">
-        <v>1.091866945882649</v>
+        <v>1.003358886109566</v>
       </c>
       <c r="L3">
-        <v>1.086358584309259</v>
+        <v>1.003731288964663</v>
       </c>
       <c r="M3">
-        <v>1.099739819178849</v>
+        <v>1.00980019786544</v>
       </c>
       <c r="N3">
-        <v>1.031019165620977</v>
+        <v>0.9995582715736911</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.081261425383543</v>
+        <v>0.9873577861205931</v>
       </c>
       <c r="D4">
-        <v>1.090989084607024</v>
+        <v>1.001336143724631</v>
       </c>
       <c r="E4">
-        <v>1.085363605105732</v>
+        <v>1.001191677543617</v>
       </c>
       <c r="F4">
-        <v>1.09890668132633</v>
+        <v>1.007977033104008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.085585655038973</v>
+        <v>1.007090504337316</v>
       </c>
       <c r="K4">
-        <v>1.093341504606984</v>
+        <v>1.011418469374636</v>
       </c>
       <c r="L4">
-        <v>1.087728826230066</v>
+        <v>1.011275741314253</v>
       </c>
       <c r="M4">
-        <v>1.101241321932016</v>
+        <v>1.01798012638492</v>
       </c>
       <c r="N4">
-        <v>1.031524763764052</v>
+        <v>1.002475607418851</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.081945641130516</v>
+        <v>0.9910758289345248</v>
       </c>
       <c r="D5">
-        <v>1.091657701279923</v>
+        <v>1.004888946969514</v>
       </c>
       <c r="E5">
-        <v>1.085988567002672</v>
+        <v>1.004531289622731</v>
       </c>
       <c r="F5">
-        <v>1.099586248201469</v>
+        <v>1.011577266758467</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.086175400095348</v>
+        <v>1.01024894313436</v>
       </c>
       <c r="K5">
-        <v>1.093959729160351</v>
+        <v>1.014705593864336</v>
       </c>
       <c r="L5">
-        <v>1.08830319924295</v>
+        <v>1.01435209611384</v>
       </c>
       <c r="M5">
-        <v>1.101870881242414</v>
+        <v>1.021316796430961</v>
       </c>
       <c r="N5">
-        <v>1.031736384892076</v>
+        <v>1.003664103122336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.082060426328191</v>
+        <v>0.9916937771519923</v>
       </c>
       <c r="D6">
-        <v>1.091769872243304</v>
+        <v>1.005479544782286</v>
       </c>
       <c r="E6">
-        <v>1.086093408635332</v>
+        <v>1.005086431298183</v>
       </c>
       <c r="F6">
-        <v>1.099700258182677</v>
+        <v>1.012175772701303</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.086274322569442</v>
+        <v>1.010773811730092</v>
       </c>
       <c r="K6">
-        <v>1.094063434544672</v>
+        <v>1.015251900825426</v>
       </c>
       <c r="L6">
-        <v>1.088399541871634</v>
+        <v>1.014863333197613</v>
       </c>
       <c r="M6">
-        <v>1.101976490236201</v>
+        <v>1.021871364353387</v>
       </c>
       <c r="N6">
-        <v>1.031771862775023</v>
+        <v>1.003861540509316</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.081270574479414</v>
+        <v>0.987407898326124</v>
       </c>
       <c r="D7">
-        <v>1.090998024936305</v>
+        <v>1.001384021047235</v>
       </c>
       <c r="E7">
-        <v>1.085371962082602</v>
+        <v>1.001236682980233</v>
       </c>
       <c r="F7">
-        <v>1.098915767944191</v>
+        <v>1.008025547992741</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.085593541854633</v>
+        <v>1.007133078889385</v>
       </c>
       <c r="K7">
-        <v>1.093349771895775</v>
+        <v>1.01146277494627</v>
       </c>
       <c r="L7">
-        <v>1.087736507563336</v>
+        <v>1.011317208752787</v>
       </c>
       <c r="M7">
-        <v>1.101249740646279</v>
+        <v>1.0180250979428</v>
       </c>
       <c r="N7">
-        <v>1.031527595099063</v>
+        <v>1.002491632243459</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.077954657831719</v>
+        <v>0.9684885998181251</v>
       </c>
       <c r="D8">
-        <v>1.087758091969406</v>
+        <v>0.983323830298005</v>
       </c>
       <c r="E8">
-        <v>1.082342788236642</v>
+        <v>0.9842583937188459</v>
       </c>
       <c r="F8">
-        <v>1.095623048461126</v>
+        <v>0.9897278364442098</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.082733468584535</v>
+        <v>0.9910521146077129</v>
       </c>
       <c r="K8">
-        <v>1.090352403287819</v>
+        <v>0.9947345316814896</v>
       </c>
       <c r="L8">
-        <v>1.084950792022394</v>
+        <v>0.9956559032645984</v>
       </c>
       <c r="M8">
-        <v>1.098197732932352</v>
+        <v>1.001048772343468</v>
       </c>
       <c r="N8">
-        <v>1.030498643121221</v>
+        <v>0.9964324010482586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.072053773455259</v>
+        <v>0.9302346913052281</v>
       </c>
       <c r="D9">
-        <v>1.081993998353002</v>
+        <v>0.9469059782128236</v>
       </c>
       <c r="E9">
-        <v>1.076950624113912</v>
+        <v>0.9500223004996671</v>
       </c>
       <c r="F9">
-        <v>1.089766126209512</v>
+        <v>0.9528476564237458</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.077636040674979</v>
+        <v>0.9585167092743536</v>
       </c>
       <c r="K9">
-        <v>1.085013493287195</v>
+        <v>0.9609235094978309</v>
       </c>
       <c r="L9">
-        <v>1.079985158096746</v>
+        <v>0.9639818494503278</v>
       </c>
       <c r="M9">
-        <v>1.092762741635001</v>
+        <v>0.966755063806754</v>
       </c>
       <c r="N9">
-        <v>1.028654497441378</v>
+        <v>0.9841604709452803</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068077840655972</v>
+        <v>0.8998211969821288</v>
       </c>
       <c r="D10">
-        <v>1.078111355415872</v>
+        <v>0.9180554511098982</v>
       </c>
       <c r="E10">
-        <v>1.073316488630716</v>
+        <v>0.9229117977565173</v>
       </c>
       <c r="F10">
-        <v>1.085821691539815</v>
+        <v>0.9236450414662386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.074196275556257</v>
+        <v>0.9326621967671875</v>
       </c>
       <c r="K10">
-        <v>1.081412947653394</v>
+        <v>0.9340806017613558</v>
       </c>
       <c r="L10">
-        <v>1.076633851925781</v>
+        <v>0.938827891464925</v>
       </c>
       <c r="M10">
-        <v>1.089098243217101</v>
+        <v>0.9395448016871297</v>
       </c>
       <c r="N10">
-        <v>1.027403246845007</v>
+        <v>0.9744283415243695</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066345544997928</v>
+        <v>0.8848987513345538</v>
       </c>
       <c r="D11">
-        <v>1.076419985771268</v>
+        <v>0.9039365709018005</v>
       </c>
       <c r="E11">
-        <v>1.071732899355283</v>
+        <v>0.9096514228212081</v>
       </c>
       <c r="F11">
-        <v>1.084103580404519</v>
+        <v>0.9093581159312599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.072696360970624</v>
+        <v>0.9199895259930856</v>
       </c>
       <c r="K11">
-        <v>1.079843441168943</v>
+        <v>0.9209299519268452</v>
       </c>
       <c r="L11">
-        <v>1.075172400775276</v>
+        <v>0.9265051022598078</v>
       </c>
       <c r="M11">
-        <v>1.087501061105503</v>
+        <v>0.9262189078995029</v>
       </c>
       <c r="N11">
-        <v>1.026856044875795</v>
+        <v>0.9696725232728263</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.065700425458806</v>
+        <v>0.8790118481785862</v>
       </c>
       <c r="D12">
-        <v>1.075790150631391</v>
+        <v>0.8983737377509921</v>
       </c>
       <c r="E12">
-        <v>1.071143128613405</v>
+        <v>0.9044284406152217</v>
       </c>
       <c r="F12">
-        <v>1.083463813866095</v>
+        <v>0.9037298228351649</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268118</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.072137598405157</v>
+        <v>0.9149934153663674</v>
       </c>
       <c r="K12">
-        <v>1.079258831294015</v>
+        <v>0.9157464234974227</v>
       </c>
       <c r="L12">
-        <v>1.074627950888349</v>
+        <v>0.9216482515565754</v>
       </c>
       <c r="M12">
-        <v>1.086906173083127</v>
+        <v>0.9209671320892426</v>
       </c>
       <c r="N12">
-        <v>1.026651958764889</v>
+        <v>0.9678009360776025</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.065838882266833</v>
+        <v>0.880291913115694</v>
       </c>
       <c r="D13">
-        <v>1.075925325096326</v>
+        <v>0.899582987617197</v>
       </c>
       <c r="E13">
-        <v>1.071269707712809</v>
+        <v>0.9055637304542763</v>
       </c>
       <c r="F13">
-        <v>1.083601118588456</v>
+        <v>0.9049532665503504</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.072257529400073</v>
+        <v>0.9160796105276978</v>
       </c>
       <c r="K13">
-        <v>1.079384306554306</v>
+        <v>0.9168733181058497</v>
       </c>
       <c r="L13">
-        <v>1.074744810578688</v>
+        <v>0.9227041041664116</v>
       </c>
       <c r="M13">
-        <v>1.087033852969395</v>
+        <v>0.9221088241384346</v>
       </c>
       <c r="N13">
-        <v>1.026695773845095</v>
+        <v>0.9682076599279061</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06629225359982</v>
+        <v>0.884419765045795</v>
       </c>
       <c r="D14">
-        <v>1.076367956083231</v>
+        <v>0.9034838002526675</v>
       </c>
       <c r="E14">
-        <v>1.071684180769943</v>
+        <v>0.9092262773835126</v>
       </c>
       <c r="F14">
-        <v>1.084050729755418</v>
+        <v>0.9089000015899331</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353277</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.072650206999685</v>
+        <v>0.9195829441975973</v>
       </c>
       <c r="K14">
-        <v>1.079795150616917</v>
+        <v>0.9205080973895746</v>
       </c>
       <c r="L14">
-        <v>1.07512742936232</v>
+        <v>0.9261098245100334</v>
       </c>
       <c r="M14">
-        <v>1.087451920925396</v>
+        <v>0.925791481765191</v>
       </c>
       <c r="N14">
-        <v>1.026839192118332</v>
+        <v>0.9695201386469028</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.066571367774509</v>
+        <v>0.8869144079263603</v>
       </c>
       <c r="D15">
-        <v>1.076640463816594</v>
+        <v>0.9058422001685532</v>
       </c>
       <c r="E15">
-        <v>1.071939343556082</v>
+        <v>0.9114408503270652</v>
       </c>
       <c r="F15">
-        <v>1.084327538398557</v>
+        <v>0.9112862665224581</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.072891931335021</v>
+        <v>0.9217006311588281</v>
       </c>
       <c r="K15">
-        <v>1.080048068147763</v>
+        <v>0.9227053737551704</v>
       </c>
       <c r="L15">
-        <v>1.075362959575611</v>
+        <v>0.9281686893276286</v>
       </c>
       <c r="M15">
-        <v>1.087709289556107</v>
+        <v>0.9280178122643604</v>
       </c>
       <c r="N15">
-        <v>1.026927446157972</v>
+        <v>0.9703139783415464</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.068192576942072</v>
+        <v>0.9007685441766407</v>
       </c>
       <c r="D16">
-        <v>1.078223387008178</v>
+        <v>0.9189526281345082</v>
       </c>
       <c r="E16">
-        <v>1.073421371194162</v>
+        <v>0.923754600674432</v>
       </c>
       <c r="F16">
-        <v>1.085935498133599</v>
+        <v>0.924552989861418</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.074295594700403</v>
+        <v>0.9334670699953193</v>
       </c>
       <c r="K16">
-        <v>1.081516885796698</v>
+        <v>0.9349159655675896</v>
       </c>
       <c r="L16">
-        <v>1.076730621886965</v>
+        <v>0.9396106975520554</v>
       </c>
       <c r="M16">
-        <v>1.089204018390464</v>
+        <v>0.940391400321322</v>
       </c>
       <c r="N16">
-        <v>1.027439447380139</v>
+        <v>0.9747307709706027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.069206613332419</v>
+        <v>0.9089431115175515</v>
       </c>
       <c r="D17">
-        <v>1.07921355177558</v>
+        <v>0.9266983482000982</v>
       </c>
       <c r="E17">
-        <v>1.074348296271926</v>
+        <v>0.9310316778286866</v>
       </c>
       <c r="F17">
-        <v>1.086941371166386</v>
+        <v>0.9323921714776766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.07517323382403</v>
+        <v>0.9404137283404244</v>
       </c>
       <c r="K17">
-        <v>1.082435400445559</v>
+        <v>0.9421264832626891</v>
       </c>
       <c r="L17">
-        <v>1.077585722482316</v>
+        <v>0.9463676262809119</v>
       </c>
       <c r="M17">
-        <v>1.090138790368431</v>
+        <v>0.9476994108329279</v>
       </c>
       <c r="N17">
-        <v>1.027759152391226</v>
+        <v>0.9773426117721586</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069797056351687</v>
+        <v>0.9135488775323871</v>
       </c>
       <c r="D18">
-        <v>1.0797901219054</v>
+        <v>0.9310656488725452</v>
       </c>
       <c r="E18">
-        <v>1.074887996393725</v>
+        <v>0.9351353233165437</v>
       </c>
       <c r="F18">
-        <v>1.087527105126903</v>
+        <v>0.9368125414818064</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.075684139027546</v>
+        <v>0.9443287104210067</v>
       </c>
       <c r="K18">
-        <v>1.082970150395692</v>
+        <v>0.9461907463393359</v>
       </c>
       <c r="L18">
-        <v>1.078083496684618</v>
+        <v>0.9501762359071294</v>
       </c>
       <c r="M18">
-        <v>1.090683024565266</v>
+        <v>0.9518190399912451</v>
       </c>
       <c r="N18">
-        <v>1.027945111006379</v>
+        <v>0.9788157870985881</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069998209770692</v>
+        <v>0.9150936892286912</v>
       </c>
       <c r="D19">
-        <v>1.079986553595488</v>
+        <v>0.9325309787280079</v>
       </c>
       <c r="E19">
-        <v>1.075071859074925</v>
+        <v>0.9365122772093402</v>
       </c>
       <c r="F19">
-        <v>1.087726661713932</v>
+        <v>0.9382957380654225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.075858175336502</v>
+        <v>0.9456419769595473</v>
       </c>
       <c r="K19">
-        <v>1.083152317668115</v>
+        <v>0.9475541852232742</v>
       </c>
       <c r="L19">
-        <v>1.078253058215992</v>
+        <v>0.9514539066641664</v>
       </c>
       <c r="M19">
-        <v>1.090868426015081</v>
+        <v>0.9532011200675493</v>
       </c>
       <c r="N19">
-        <v>1.028008430481286</v>
+        <v>0.9793101345871683</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.069097923520204</v>
+        <v>0.9080833164970755</v>
       </c>
       <c r="D20">
-        <v>1.079107417864153</v>
+        <v>0.9258833194003614</v>
       </c>
       <c r="E20">
-        <v>1.074248945633899</v>
+        <v>0.9302658970891985</v>
       </c>
       <c r="F20">
-        <v>1.086833551759724</v>
+        <v>0.9315672687196643</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.075079175982128</v>
+        <v>0.9396829663314844</v>
       </c>
       <c r="K20">
-        <v>1.082336956776091</v>
+        <v>0.9413679036517631</v>
       </c>
       <c r="L20">
-        <v>1.077494081213012</v>
+        <v>0.9456567630351927</v>
       </c>
       <c r="M20">
-        <v>1.090038602278289</v>
+        <v>0.9469305305438422</v>
       </c>
       <c r="N20">
-        <v>1.027724904984341</v>
+        <v>0.9770677234968894</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.06615879358326</v>
+        <v>0.8832145591289011</v>
       </c>
       <c r="D21">
-        <v>1.076237656525637</v>
+        <v>0.9023446757245114</v>
       </c>
       <c r="E21">
-        <v>1.071562172163622</v>
+        <v>0.9081566827860797</v>
       </c>
       <c r="F21">
-        <v>1.083918374670249</v>
+        <v>0.9077474452529154</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.072534618599807</v>
+        <v>0.9185599767724164</v>
       </c>
       <c r="K21">
-        <v>1.079674212600262</v>
+        <v>0.9194467198938316</v>
       </c>
       <c r="L21">
-        <v>1.075014802312157</v>
+        <v>0.9251153207054432</v>
       </c>
       <c r="M21">
-        <v>1.08732885560738</v>
+        <v>0.9247160998827733</v>
       </c>
       <c r="N21">
-        <v>1.026796982106494</v>
+        <v>0.9691367943016361</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064301165077549</v>
+        <v>0.8655129439351533</v>
       </c>
       <c r="D22">
-        <v>1.074424122510582</v>
+        <v>0.8856336943226918</v>
       </c>
       <c r="E22">
-        <v>1.069863865158007</v>
+        <v>0.8924706175058589</v>
       </c>
       <c r="F22">
-        <v>1.082076294799277</v>
+        <v>0.8908414463850775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544657</v>
       </c>
       <c r="J22">
-        <v>1.07092531059579</v>
+        <v>0.9035453769984527</v>
       </c>
       <c r="K22">
-        <v>1.077990607768552</v>
+        <v>0.9038709319246538</v>
       </c>
       <c r="L22">
-        <v>1.073446686672098</v>
+        <v>0.9105223444314949</v>
       </c>
       <c r="M22">
-        <v>1.08561570860124</v>
+        <v>0.9089370271920806</v>
       </c>
       <c r="N22">
-        <v>1.026208742761087</v>
+        <v>0.9635205412203619</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.065286867658085</v>
+        <v>0.8751316294170887</v>
       </c>
       <c r="D23">
-        <v>1.075386403314035</v>
+        <v>0.8947093759909865</v>
       </c>
       <c r="E23">
-        <v>1.070765044081621</v>
+        <v>0.9009884908140074</v>
       </c>
       <c r="F23">
-        <v>1.083053707678578</v>
+        <v>0.9000225711476916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.071779348693187</v>
+        <v>0.9117014841173813</v>
       </c>
       <c r="K23">
-        <v>1.078884031521249</v>
+        <v>0.9123312990169556</v>
       </c>
       <c r="L23">
-        <v>1.074278873237088</v>
+        <v>0.9184485091829737</v>
       </c>
       <c r="M23">
-        <v>1.086524792474834</v>
+        <v>0.9175072965639727</v>
       </c>
       <c r="N23">
-        <v>1.026521042759848</v>
+        <v>0.9665688912436666</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.069147038939072</v>
+        <v>0.9084723169151975</v>
       </c>
       <c r="D24">
-        <v>1.079155378223981</v>
+        <v>0.9262520562620395</v>
       </c>
       <c r="E24">
-        <v>1.07429384087325</v>
+        <v>0.9306123512639851</v>
       </c>
       <c r="F24">
-        <v>1.086882273717744</v>
+        <v>0.9319404716158268</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.075121679780783</v>
+        <v>0.9400135846270881</v>
       </c>
       <c r="K24">
-        <v>1.082381442332873</v>
+        <v>0.9417111056498721</v>
       </c>
       <c r="L24">
-        <v>1.077535493019211</v>
+        <v>0.9459783768261479</v>
       </c>
       <c r="M24">
-        <v>1.090083876058649</v>
+        <v>0.9472783915598334</v>
       </c>
       <c r="N24">
-        <v>1.027740381518993</v>
+        <v>0.9771920873813056</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.073586464254422</v>
+        <v>0.940842128317712</v>
       </c>
       <c r="D25">
-        <v>1.083490967031524</v>
+        <v>0.956990425289994</v>
       </c>
       <c r="E25">
-        <v>1.078351356378972</v>
+        <v>0.9595016789232506</v>
       </c>
       <c r="F25">
-        <v>1.091287074335799</v>
+        <v>0.9630580421602685</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.078960954643524</v>
+        <v>0.9675386816759601</v>
       </c>
       <c r="K25">
-        <v>1.086400792518705</v>
+        <v>0.9702952416176679</v>
       </c>
       <c r="L25">
-        <v>1.081275901106545</v>
+        <v>0.9727629921467493</v>
       </c>
       <c r="M25">
-        <v>1.094174859860201</v>
+        <v>0.9762582490677415</v>
       </c>
       <c r="N25">
-        <v>1.029135026410762</v>
+        <v>0.987562543593972</v>
       </c>
     </row>
   </sheetData>
